--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.camenzind\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\blj-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36FB031-934E-42F6-AB0C-CE9FE3E8F9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98903E-3170-492C-8C2C-B9B841C7B285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,10 +1624,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3590,7 +3590,9 @@
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="63"/>
+      <c r="W20" s="63">
+        <v>1</v>
+      </c>
       <c r="X20" s="63"/>
       <c r="Y20" s="63"/>
       <c r="Z20" s="57"/>
@@ -3878,7 +3880,7 @@
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3898,7 +3900,9 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="63"/>
+      <c r="W24" s="63">
+        <v>7.5</v>
+      </c>
       <c r="X24" s="63"/>
       <c r="Y24" s="63"/>
       <c r="Z24" s="57"/>
@@ -4378,7 +4382,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4451,7 +4455,7 @@
       </c>
       <c r="D32" s="82">
         <f>SUM(G32:BJ32)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4473,7 +4477,9 @@
       <c r="T32" s="58"/>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
-      <c r="W32" s="63"/>
+      <c r="W32" s="63">
+        <v>0.3</v>
+      </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="63"/>
       <c r="Z32" s="57"/>
@@ -4526,7 +4532,7 @@
       </c>
       <c r="D33" s="82">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4548,7 +4554,9 @@
       <c r="T33" s="58"/>
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
-      <c r="W33" s="63"/>
+      <c r="W33" s="63">
+        <v>0.3</v>
+      </c>
       <c r="X33" s="55"/>
       <c r="Y33" s="63"/>
       <c r="Z33" s="57"/>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="D34" s="82">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4623,7 +4631,9 @@
       <c r="T34" s="58"/>
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
-      <c r="W34" s="63"/>
+      <c r="W34" s="63">
+        <v>0.3</v>
+      </c>
       <c r="X34" s="55"/>
       <c r="Y34" s="63"/>
       <c r="Z34" s="57"/>
@@ -5251,7 +5261,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>34.9</v>
+        <v>44.3</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5321,7 +5331,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.4000000000000021</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5583,7 +5593,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5600,7 +5610,7 @@
       </c>
       <c r="D6" s="79">
         <f>Zeitplanung!D31</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F6" s="80"/>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\blj-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98903E-3170-492C-8C2C-B9B841C7B285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50846509-911D-4CDA-90E6-E91C4F03886D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1624,13 +1624,13 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>33.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>27</v>
+        <v>33.75</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3593,7 +3593,9 @@
       <c r="W20" s="63">
         <v>1</v>
       </c>
-      <c r="X20" s="63"/>
+      <c r="X20" s="63">
+        <v>1</v>
+      </c>
       <c r="Y20" s="63"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
@@ -3880,7 +3882,7 @@
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>13.25</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3901,9 +3903,11 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="63">
-        <v>7.5</v>
-      </c>
-      <c r="X24" s="63"/>
+        <v>6.5</v>
+      </c>
+      <c r="X24" s="63">
+        <v>6.75</v>
+      </c>
       <c r="Y24" s="63"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
@@ -4756,7 +4760,7 @@
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="31"/>
@@ -4829,7 +4833,7 @@
       </c>
       <c r="D37" s="82">
         <f>SUM(G37:BJ37)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="51"/>
@@ -4852,7 +4856,9 @@
       <c r="U37" s="53"/>
       <c r="V37" s="54"/>
       <c r="W37" s="55"/>
-      <c r="X37" s="63"/>
+      <c r="X37" s="63">
+        <v>0.25</v>
+      </c>
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
@@ -5261,7 +5267,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44.3</v>
+        <v>51.3</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5331,11 +5337,11 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>9.4000000000000021</v>
+        <v>8.4</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -5593,7 +5599,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>27</v>
+        <v>33.75</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5626,7 +5632,7 @@
       </c>
       <c r="D7" s="79">
         <f>Zeitplanung!D36</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F7" s="80"/>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\blj-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50846509-911D-4CDA-90E6-E91C4F03886D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447394A-E9C1-4C91-B97A-E294C84DA930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1618,16 +1618,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.75</c:v>
+                  <c:v>40.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7999999999999998</c:v>
+                  <c:v>2.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.25</c:v>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D12" s="82">
         <f>SUM(G12:BJ12)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2987,7 +2987,9 @@
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="63"/>
+      <c r="Y12" s="63">
+        <v>0.5</v>
+      </c>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="61"/>
@@ -3412,7 +3414,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>33.75</v>
+        <v>40.35</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3564,7 +3566,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3596,7 +3598,9 @@
       <c r="X20" s="63">
         <v>1</v>
       </c>
-      <c r="Y20" s="63"/>
+      <c r="Y20" s="63">
+        <v>1</v>
+      </c>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="63"/>
@@ -3882,7 +3886,7 @@
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
-        <v>13.25</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3908,7 +3912,9 @@
       <c r="X24" s="63">
         <v>6.75</v>
       </c>
-      <c r="Y24" s="63"/>
+      <c r="Y24" s="63">
+        <v>5.6</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="63"/>
@@ -4386,7 +4392,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>1.7999999999999998</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4459,7 +4465,7 @@
       </c>
       <c r="D32" s="82">
         <f>SUM(G32:BJ32)</f>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4485,7 +4491,9 @@
         <v>0.3</v>
       </c>
       <c r="X32" s="55"/>
-      <c r="Y32" s="63"/>
+      <c r="Y32" s="63">
+        <v>0.3</v>
+      </c>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="61"/>
@@ -4536,7 +4544,7 @@
       </c>
       <c r="D33" s="82">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4562,7 +4570,9 @@
         <v>0.3</v>
       </c>
       <c r="X33" s="55"/>
-      <c r="Y33" s="63"/>
+      <c r="Y33" s="63">
+        <v>0.3</v>
+      </c>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="61"/>
@@ -4613,7 +4623,7 @@
       </c>
       <c r="D34" s="82">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4639,7 +4649,9 @@
         <v>0.3</v>
       </c>
       <c r="X34" s="55"/>
-      <c r="Y34" s="63"/>
+      <c r="Y34" s="63">
+        <v>0.3</v>
+      </c>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="61"/>
@@ -5267,7 +5279,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>51.3</v>
+        <v>59.300000000000004</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5345,7 +5357,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5565,7 +5577,7 @@
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
@@ -5599,7 +5611,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>33.75</v>
+        <v>40.35</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5616,7 +5628,7 @@
       </c>
       <c r="D6" s="79">
         <f>Zeitplanung!D31</f>
-        <v>1.7999999999999998</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="F6" s="80"/>
     </row>
